--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value793.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value793.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.387586358820964</v>
+        <v>1.791376948356628</v>
       </c>
       <c r="B1">
-        <v>3.226273090358049</v>
+        <v>3.882137060165405</v>
       </c>
       <c r="C1">
-        <v>2.72205281729569</v>
+        <v>1.357315540313721</v>
       </c>
       <c r="D1">
-        <v>2.087997452155848</v>
+        <v>0.8500217199325562</v>
       </c>
       <c r="E1">
-        <v>1.262185022129474</v>
+        <v>0.4603198766708374</v>
       </c>
     </row>
   </sheetData>
